--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124141a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124141a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.44345041627043</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.500342306277658</v>
+      </c>
+      <c r="C5">
+        <v>1.571735120471399</v>
+      </c>
+      <c r="D5">
+        <v>1.615551417156662</v>
+      </c>
+      <c r="E5">
+        <v>3.671412020024598</v>
+      </c>
+      <c r="F5">
+        <v>2.452285815678763</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.500342306277658</v>
+        <v>9.871604888030811</v>
       </c>
       <c r="C6">
-        <v>1.571735120471399</v>
+        <v>9.683062078573117</v>
       </c>
       <c r="D6">
-        <v>1.615551417156662</v>
+        <v>9.2962882224535</v>
       </c>
       <c r="E6">
-        <v>3.671412020024598</v>
+        <v>27.29365620933466</v>
       </c>
       <c r="F6">
-        <v>2.452285815678763</v>
+        <v>14.97405725674795</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>9.871604888030811</v>
+        <v>3.758989903111189</v>
       </c>
       <c r="C7">
-        <v>9.683062078573117</v>
+        <v>3.930484631672797</v>
       </c>
       <c r="D7">
-        <v>9.2962882224535</v>
+        <v>3.872141396925987</v>
       </c>
       <c r="E7">
-        <v>27.29365620933466</v>
+        <v>8.036129679691605</v>
       </c>
       <c r="F7">
-        <v>14.97405725674795</v>
+        <v>4.937704526858195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>10.72460852446764</v>
+      </c>
+      <c r="C8">
+        <v>10.99577919541889</v>
+      </c>
+      <c r="D8">
+        <v>11.24804015740888</v>
+      </c>
+      <c r="E8">
+        <v>36.00145224316486</v>
+      </c>
+      <c r="F8">
+        <v>16.67749234608604</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>3.758989903111189</v>
+        <v>12.41684906169708</v>
       </c>
       <c r="C9">
-        <v>3.930484631672797</v>
+        <v>13.83949818667571</v>
       </c>
       <c r="D9">
-        <v>3.872141396925987</v>
+        <v>14.04279178481912</v>
       </c>
       <c r="E9">
-        <v>8.036129679691605</v>
+        <v>39.45437120441043</v>
       </c>
       <c r="F9">
-        <v>4.937704526858195</v>
+        <v>25.79002281605728</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>10.72460852446764</v>
+        <v>9.068007444300866</v>
       </c>
       <c r="C10">
-        <v>10.99577919541889</v>
+        <v>9.231472719218354</v>
       </c>
       <c r="D10">
-        <v>11.24804015740888</v>
+        <v>9.735547099862364</v>
       </c>
       <c r="E10">
-        <v>36.00145224316486</v>
+        <v>18.08135966387384</v>
       </c>
       <c r="F10">
-        <v>16.67749234608604</v>
+        <v>14.18967342094874</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>12.41684906169708</v>
+        <v>16.04276851613043</v>
       </c>
       <c r="C11">
-        <v>13.83949818667571</v>
+        <v>17.06342936151713</v>
       </c>
       <c r="D11">
-        <v>14.04279178481912</v>
+        <v>17.57403490494174</v>
       </c>
       <c r="E11">
-        <v>39.45437120441043</v>
+        <v>38.7848311096713</v>
       </c>
       <c r="F11">
-        <v>25.79002281605728</v>
+        <v>23.31396403254609</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>9.068007444300866</v>
+        <v>4.927678995320328</v>
       </c>
       <c r="C12">
-        <v>9.231472719218354</v>
+        <v>5.183281275476588</v>
       </c>
       <c r="D12">
-        <v>9.735547099862364</v>
+        <v>5.006618669893734</v>
       </c>
       <c r="E12">
-        <v>18.08135966387384</v>
+        <v>10.42548568816897</v>
       </c>
       <c r="F12">
-        <v>14.18967342094874</v>
+        <v>5.959126233885542</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>16.04276851613043</v>
+        <v>19.18936202929671</v>
       </c>
       <c r="C13">
-        <v>17.06342936151713</v>
+        <v>18.93680989324727</v>
       </c>
       <c r="D13">
-        <v>17.57403490494174</v>
+        <v>20.84469434144706</v>
       </c>
       <c r="E13">
-        <v>38.7848311096713</v>
+        <v>26.8010802184932</v>
       </c>
       <c r="F13">
-        <v>23.31396403254609</v>
+        <v>24.65697109900276</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>4.927678995320328</v>
+        <v>14.64223912489069</v>
       </c>
       <c r="C14">
-        <v>5.183281275476588</v>
+        <v>17.59902052287557</v>
       </c>
       <c r="D14">
-        <v>5.006618669893734</v>
+        <v>17.60646931906295</v>
       </c>
       <c r="E14">
-        <v>10.42548568816897</v>
+        <v>38.14094654336355</v>
       </c>
       <c r="F14">
-        <v>5.959126233885542</v>
+        <v>23.95436754862953</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>19.18936202929671</v>
+        <v>2.760182733205963</v>
       </c>
       <c r="C15">
-        <v>18.93680989324727</v>
+        <v>2.73311993205614</v>
       </c>
       <c r="D15">
-        <v>20.84469434144706</v>
+        <v>2.847379085136505</v>
       </c>
       <c r="E15">
-        <v>26.8010802184932</v>
+        <v>5.470576892008963</v>
       </c>
       <c r="F15">
-        <v>24.65697109900276</v>
+        <v>4.283580510327267</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>14.64223912489069</v>
+        <v>16.90354989364348</v>
       </c>
       <c r="C16">
-        <v>17.59902052287557</v>
+        <v>16.44673462364913</v>
       </c>
       <c r="D16">
-        <v>17.60646931906295</v>
+        <v>17.19624234617231</v>
       </c>
       <c r="E16">
-        <v>38.14094654336355</v>
+        <v>28.58323514139297</v>
       </c>
       <c r="F16">
-        <v>23.95436754862953</v>
+        <v>21.87024033611969</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>2.760182733205963</v>
+        <v>10.96055967187634</v>
       </c>
       <c r="C17">
-        <v>2.73311993205614</v>
+        <v>11.27056897959751</v>
       </c>
       <c r="D17">
-        <v>2.847379085136505</v>
+        <v>11.09747147108596</v>
       </c>
       <c r="E17">
-        <v>5.470576892008963</v>
+        <v>25.0007962083153</v>
       </c>
       <c r="F17">
-        <v>4.283580510327267</v>
+        <v>18.93653553138786</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>16.90354989364348</v>
+        <v>3.780198389785246</v>
       </c>
       <c r="C18">
-        <v>16.44673462364913</v>
+        <v>3.980283698704615</v>
       </c>
       <c r="D18">
-        <v>17.19624234617231</v>
+        <v>4.211465739346322</v>
       </c>
       <c r="E18">
-        <v>28.58323514139297</v>
+        <v>9.190293873905301</v>
       </c>
       <c r="F18">
-        <v>21.87024033611969</v>
+        <v>6.342446766690107</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>10.96055967187634</v>
+        <v>7.718515885037007</v>
       </c>
       <c r="C19">
-        <v>11.27056897959751</v>
+        <v>7.917296715647749</v>
       </c>
       <c r="D19">
-        <v>11.09747147108596</v>
+        <v>8.430425912792543</v>
       </c>
       <c r="E19">
-        <v>25.0007962083153</v>
+        <v>16.16568557299885</v>
       </c>
       <c r="F19">
-        <v>18.93653553138786</v>
+        <v>14.02206977512787</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>3.780198389785246</v>
+        <v>11.69573987130967</v>
       </c>
       <c r="C20">
-        <v>3.980283698704615</v>
+        <v>9.97900379667014</v>
       </c>
       <c r="D20">
-        <v>4.211465739346322</v>
+        <v>10.51398000753021</v>
       </c>
       <c r="E20">
-        <v>9.190293873905301</v>
+        <v>21.04844777165141</v>
       </c>
       <c r="F20">
-        <v>6.342446766690107</v>
+        <v>20.595855014068</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>7.718515885037007</v>
+        <v>4.926178597464148</v>
       </c>
       <c r="C21">
-        <v>7.917296715647749</v>
+        <v>5.49830085259285</v>
       </c>
       <c r="D21">
-        <v>8.430425912792543</v>
+        <v>5.323433464797446</v>
       </c>
       <c r="E21">
-        <v>16.16568557299885</v>
+        <v>12.72430302682652</v>
       </c>
       <c r="F21">
-        <v>14.02206977512787</v>
+        <v>6.577661598425974</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>11.69573987130967</v>
+        <v>9.406369324431072</v>
       </c>
       <c r="C22">
-        <v>9.97900379667014</v>
+        <v>10.11419901613115</v>
       </c>
       <c r="D22">
-        <v>10.51398000753021</v>
+        <v>11.53203026180933</v>
       </c>
       <c r="E22">
-        <v>21.04844777165141</v>
+        <v>28.37294234466869</v>
       </c>
       <c r="F22">
-        <v>20.595855014068</v>
+        <v>15.02663584106697</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>4.926178597464148</v>
+        <v>7.327723763247529</v>
       </c>
       <c r="C23">
-        <v>5.49830085259285</v>
+        <v>10.10666154283395</v>
       </c>
       <c r="D23">
-        <v>5.323433464797446</v>
+        <v>11.44781356536519</v>
       </c>
       <c r="E23">
-        <v>12.72430302682652</v>
+        <v>20.08043829120676</v>
       </c>
       <c r="F23">
-        <v>6.577661598425974</v>
+        <v>11.37268415083695</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>9.406369324431072</v>
+        <v>4.434781827247972</v>
       </c>
       <c r="C24">
-        <v>10.11419901613115</v>
+        <v>4.405742497543457</v>
       </c>
       <c r="D24">
-        <v>11.53203026180933</v>
+        <v>4.580800854832156</v>
       </c>
       <c r="E24">
-        <v>28.37294234466869</v>
+        <v>8.501519983906682</v>
       </c>
       <c r="F24">
-        <v>15.02663584106697</v>
+        <v>7.719158212589965</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>7.327723763247529</v>
+        <v>2.422108554257182</v>
       </c>
       <c r="C25">
-        <v>10.10666154283395</v>
+        <v>2.609396468995926</v>
       </c>
       <c r="D25">
-        <v>11.44781356536519</v>
+        <v>2.674968895272904</v>
       </c>
       <c r="E25">
-        <v>20.08043829120676</v>
+        <v>7.196900470310522</v>
       </c>
       <c r="F25">
-        <v>11.37268415083695</v>
+        <v>4.370402961235383</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>4.434781827247972</v>
+        <v>4.334153901621585</v>
       </c>
       <c r="C26">
-        <v>4.405742497543457</v>
+        <v>4.688726374329267</v>
       </c>
       <c r="D26">
-        <v>4.580800854832156</v>
+        <v>4.9180160638538</v>
       </c>
       <c r="E26">
-        <v>8.501519983906682</v>
+        <v>13.16806828888053</v>
       </c>
       <c r="F26">
-        <v>7.719158212589965</v>
+        <v>8.528252253329434</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2.422108554257182</v>
+        <v>8.472166460409577</v>
       </c>
       <c r="C27">
-        <v>2.609396468995926</v>
+        <v>9.387017889149334</v>
       </c>
       <c r="D27">
-        <v>2.674968895272904</v>
+        <v>9.960080778473323</v>
       </c>
       <c r="E27">
-        <v>7.196900470310522</v>
+        <v>22.43029341724751</v>
       </c>
       <c r="F27">
-        <v>4.370402961235383</v>
+        <v>14.39618597770448</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>4.334153901621585</v>
+        <v>4.756065039680725</v>
       </c>
       <c r="C28">
-        <v>4.688726374329267</v>
+        <v>5.031133076945484</v>
       </c>
       <c r="D28">
-        <v>4.9180160638538</v>
+        <v>5.092791951255438</v>
       </c>
       <c r="E28">
-        <v>13.16806828888053</v>
+        <v>14.67862481353644</v>
       </c>
       <c r="F28">
-        <v>8.528252253329434</v>
+        <v>8.466290214322253</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>8.472166460409577</v>
+        <v>3.582872856817167</v>
       </c>
       <c r="C29">
-        <v>9.387017889149334</v>
+        <v>3.853170004493133</v>
       </c>
       <c r="D29">
-        <v>9.960080778473323</v>
+        <v>3.95672396875906</v>
       </c>
       <c r="E29">
-        <v>22.43029341724751</v>
+        <v>10.25219214123947</v>
       </c>
       <c r="F29">
-        <v>14.39618597770448</v>
+        <v>6.517700478930903</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.756065039680725</v>
+        <v>3.530449306608658</v>
       </c>
       <c r="C30">
-        <v>5.031133076945484</v>
+        <v>3.78136785256848</v>
       </c>
       <c r="D30">
-        <v>5.092791951255438</v>
+        <v>3.824974218025317</v>
       </c>
       <c r="E30">
-        <v>14.67862481353644</v>
+        <v>11.93044252775907</v>
       </c>
       <c r="F30">
-        <v>8.466290214322253</v>
+        <v>6.595556690889024</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>3.582872856817167</v>
+        <v>5.423886332623453</v>
       </c>
       <c r="C31">
-        <v>3.853170004493133</v>
+        <v>5.742777738537555</v>
       </c>
       <c r="D31">
-        <v>3.95672396875906</v>
+        <v>5.681552029175602</v>
       </c>
       <c r="E31">
-        <v>10.25219214123947</v>
+        <v>18.67803444506636</v>
       </c>
       <c r="F31">
-        <v>6.517700478930903</v>
+        <v>10.42510451808635</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>3.530449306608658</v>
+        <v>14.8074416156916</v>
       </c>
       <c r="C32">
-        <v>3.78136785256848</v>
+        <v>15.86692154827382</v>
       </c>
       <c r="D32">
-        <v>3.824974218025317</v>
+        <v>16.02854377007691</v>
       </c>
       <c r="E32">
-        <v>11.93044252775907</v>
+        <v>57.87110991923478</v>
       </c>
       <c r="F32">
-        <v>6.595556690889024</v>
+        <v>25.55478985491458</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>5.423886332623453</v>
+        <v>4.281658084254082</v>
       </c>
       <c r="C33">
-        <v>5.742777738537555</v>
+        <v>4.748378065546587</v>
       </c>
       <c r="D33">
-        <v>5.681552029175602</v>
+        <v>4.958399306684489</v>
       </c>
       <c r="E33">
-        <v>18.67803444506636</v>
+        <v>14.54010118482783</v>
       </c>
       <c r="F33">
-        <v>10.42510451808635</v>
+        <v>7.774105532021403</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>14.8074416156916</v>
+        <v>3.964111684053164</v>
       </c>
       <c r="C34">
-        <v>15.86692154827382</v>
+        <v>4.188723550880686</v>
       </c>
       <c r="D34">
-        <v>16.02854377007691</v>
+        <v>4.227319826312088</v>
       </c>
       <c r="E34">
-        <v>57.87110991923478</v>
+        <v>10.46600069644152</v>
       </c>
       <c r="F34">
-        <v>25.55478985491458</v>
+        <v>6.75279365690728</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>4.281658084254082</v>
+        <v>13.33215256738777</v>
       </c>
       <c r="C35">
-        <v>4.748378065546587</v>
+        <v>14.15426604353962</v>
       </c>
       <c r="D35">
-        <v>4.958399306684489</v>
+        <v>13.81313963208805</v>
       </c>
       <c r="E35">
-        <v>14.54010118482783</v>
+        <v>30.01305494954801</v>
       </c>
       <c r="F35">
-        <v>7.774105532021403</v>
+        <v>18.45615518025648</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>3.964111684053164</v>
+        <v>9.44908397901454</v>
       </c>
       <c r="C36">
-        <v>4.188723550880686</v>
+        <v>9.837597773430216</v>
       </c>
       <c r="D36">
-        <v>4.227319826312088</v>
+        <v>10.10728684102072</v>
       </c>
       <c r="E36">
-        <v>10.46600069644152</v>
+        <v>30.22840539170497</v>
       </c>
       <c r="F36">
-        <v>6.75279365690728</v>
+        <v>19.14518518284726</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>13.33215256738777</v>
+        <v>6.485775493062613</v>
       </c>
       <c r="C37">
-        <v>14.15426604353962</v>
+        <v>6.89905146940517</v>
       </c>
       <c r="D37">
-        <v>13.81313963208805</v>
+        <v>6.824006074032618</v>
       </c>
       <c r="E37">
-        <v>30.01305494954801</v>
+        <v>19.09175269257475</v>
       </c>
       <c r="F37">
-        <v>18.45615518025648</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>9.44908397901454</v>
-      </c>
-      <c r="C38">
-        <v>9.837597773430216</v>
-      </c>
-      <c r="D38">
-        <v>10.10728684102072</v>
-      </c>
-      <c r="E38">
-        <v>30.22840539170497</v>
-      </c>
-      <c r="F38">
-        <v>19.14518518284726</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>6.485775493062613</v>
-      </c>
-      <c r="C39">
-        <v>6.89905146940517</v>
-      </c>
-      <c r="D39">
-        <v>6.824006074032618</v>
-      </c>
-      <c r="E39">
-        <v>19.09175269257475</v>
-      </c>
-      <c r="F39">
         <v>11.72116784774158</v>
       </c>
     </row>
